--- a/biology/Zoologie/Cephalaspidea/Cephalaspidea.xlsx
+++ b/biology/Zoologie/Cephalaspidea/Cephalaspidea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Cephalaspidea sont un ordre de mollusques hétérobranches de l'infra-classe des Opisthobranchia.
 </t>
@@ -511,11 +523,13 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce sont des mollusques opisthobranches pourvus d'une fine coquille plus ou moins visible (interne chez Chelidonura, absente chez certains Gastropteridae), et d'une tête en forme de bouclier. Celle-ci leur sert à s'enfouir dans le sable : la plupart des espèces vivent en effet juste sous les premiers centimètres de sédiment, où ils se nourrissent suivant les espèces d'algues[3] ou de petits animaux (vers, mollusques)[4],[5].
-On trouve des céphalaspides dans toutes les mers du monde, mais ils atteignent leur pic de diversité dans l'Indo-Pacifique tropical, principalement entre la surface et 40 m de profondeur[5]. On en connaît actuellement environ 634 espèces[5]. 
-Les céphalaspides constituent un groupe très basal des opisthobranches, encore proche des prosobranches[4]. Des études génétiques récentes suggèrent cependant que ce groupe serait polyphylétique, et nécessiterait une révision majeure[5]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont des mollusques opisthobranches pourvus d'une fine coquille plus ou moins visible (interne chez Chelidonura, absente chez certains Gastropteridae), et d'une tête en forme de bouclier. Celle-ci leur sert à s'enfouir dans le sable : la plupart des espèces vivent en effet juste sous les premiers centimètres de sédiment, où ils se nourrissent suivant les espèces d'algues ou de petits animaux (vers, mollusques),.
+On trouve des céphalaspides dans toutes les mers du monde, mais ils atteignent leur pic de diversité dans l'Indo-Pacifique tropical, principalement entre la surface et 40 m de profondeur. On en connaît actuellement environ 634 espèces. 
+Les céphalaspides constituent un groupe très basal des opisthobranches, encore proche des prosobranches. Des études génétiques récentes suggèrent cependant que ce groupe serait polyphylétique, et nécessiterait une révision majeure. 
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (20 septembre 2015)[6], prenant pour base la taxinomie de Bouchet &amp; Rocroi (2005) :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (20 septembre 2015), prenant pour base la taxinomie de Bouchet &amp; Rocroi (2005) :
 super-famille des Bulloidea Gray, 1827
 famille des Acteocinidae Dall, 1913 -- 1 genre
 famille des Bullidae Gray, 1827 -- 1 genre (+ 1 fossile)
@@ -574,7 +590,7 @@
 famille des Scaphandridae G.O. Sars, 1878 -- 6 genres + 4 fossiles
 genre non-assigné
 genre Noalda Iredale, 1936
-La super-famille des Acteonoidea (contenant les familles des Acteonidae, des Aplustridae et des Bullinidae) est encore non-assignée selon WoRMS, mais est souvent comptée parmi les Cephalaspidea[7],[8]. 
+La super-famille des Acteonoidea (contenant les familles des Acteonidae, des Aplustridae et des Bullinidae) est encore non-assignée selon WoRMS, mais est souvent comptée parmi les Cephalaspidea,. 
 			Bulla cruentata (Bullidae).
 			Colpodaspis thompsoni (Colpodaspididae).
 			Haminoea cymbalum (Haminoeidae).
